--- a/natmiOut/OldD7/LR-pairs_lrc2p/Vcan-Egfr.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Vcan-Egfr.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.50564313711221</v>
+        <v>3.204747333333333</v>
       </c>
       <c r="H2">
-        <v>1.50564313711221</v>
+        <v>9.614241999999999</v>
       </c>
       <c r="I2">
-        <v>0.009822134503338858</v>
+        <v>0.01973032100547387</v>
       </c>
       <c r="J2">
-        <v>0.009822134503338858</v>
+        <v>0.01973032100547387</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.24079685714428</v>
+        <v>1.854571666666667</v>
       </c>
       <c r="N2">
-        <v>1.24079685714428</v>
+        <v>5.563715</v>
       </c>
       <c r="O2">
-        <v>0.01124864785254337</v>
+        <v>0.01651371646154392</v>
       </c>
       <c r="P2">
-        <v>0.01124864785254337</v>
+        <v>0.01651371646154392</v>
       </c>
       <c r="Q2">
-        <v>1.868197272509684</v>
+        <v>5.943433603225555</v>
       </c>
       <c r="R2">
-        <v>1.868197272509684</v>
+        <v>53.49090242902999</v>
       </c>
       <c r="S2">
-        <v>0.0001104857321883748</v>
+        <v>0.0003258209267796397</v>
       </c>
       <c r="T2">
-        <v>0.0001104857321883748</v>
+        <v>0.0003258209267796397</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.50564313711221</v>
+        <v>3.204747333333333</v>
       </c>
       <c r="H3">
-        <v>1.50564313711221</v>
+        <v>9.614241999999999</v>
       </c>
       <c r="I3">
-        <v>0.009822134503338858</v>
+        <v>0.01973032100547387</v>
       </c>
       <c r="J3">
-        <v>0.009822134503338858</v>
+        <v>0.01973032100547387</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>92.8396018807598</v>
+        <v>92.91372433333333</v>
       </c>
       <c r="N3">
-        <v>92.8396018807598</v>
+        <v>278.741173</v>
       </c>
       <c r="O3">
-        <v>0.8416526704705836</v>
+        <v>0.8273343794712995</v>
       </c>
       <c r="P3">
-        <v>0.8416526704705836</v>
+        <v>0.8273343794712996</v>
       </c>
       <c r="Q3">
-        <v>139.7833094239958</v>
+        <v>297.7650102873184</v>
       </c>
       <c r="R3">
-        <v>139.7833094239958</v>
+        <v>2679.885092585866</v>
       </c>
       <c r="S3">
-        <v>0.008266825734456409</v>
+        <v>0.01632357288583327</v>
       </c>
       <c r="T3">
-        <v>0.008266825734456409</v>
+        <v>0.01632357288583328</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.50564313711221</v>
+        <v>3.204747333333333</v>
       </c>
       <c r="H4">
-        <v>1.50564313711221</v>
+        <v>9.614241999999999</v>
       </c>
       <c r="I4">
-        <v>0.009822134503338858</v>
+        <v>0.01973032100547387</v>
       </c>
       <c r="J4">
-        <v>0.009822134503338858</v>
+        <v>0.01973032100547387</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.156129563433599</v>
+        <v>0.162136</v>
       </c>
       <c r="N4">
-        <v>0.156129563433599</v>
+        <v>0.4864080000000001</v>
       </c>
       <c r="O4">
-        <v>0.001415418219609232</v>
+        <v>0.001443712303133186</v>
       </c>
       <c r="P4">
-        <v>0.001415418219609232</v>
+        <v>0.001443712303133187</v>
       </c>
       <c r="Q4">
-        <v>0.2350754056841238</v>
+        <v>0.5196049136373334</v>
       </c>
       <c r="R4">
-        <v>0.2350754056841238</v>
+        <v>4.676444222736</v>
       </c>
       <c r="S4">
-        <v>1.39024281314783E-05</v>
+        <v>2.848490718036977E-05</v>
       </c>
       <c r="T4">
-        <v>1.39024281314783E-05</v>
+        <v>2.848490718036978E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.50564313711221</v>
+        <v>3.204747333333333</v>
       </c>
       <c r="H5">
-        <v>1.50564313711221</v>
+        <v>9.614241999999999</v>
       </c>
       <c r="I5">
-        <v>0.009822134503338858</v>
+        <v>0.01973032100547387</v>
       </c>
       <c r="J5">
-        <v>0.009822134503338858</v>
+        <v>0.01973032100547387</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.0697834802806</v>
+        <v>17.37449166666667</v>
       </c>
       <c r="N5">
-        <v>16.0697834802806</v>
+        <v>52.123475</v>
       </c>
       <c r="O5">
-        <v>0.145683263457264</v>
+        <v>0.1547081917640233</v>
       </c>
       <c r="P5">
-        <v>0.145683263457264</v>
+        <v>0.1547081917640233</v>
       </c>
       <c r="Q5">
-        <v>24.19535921196365</v>
+        <v>55.68085583677222</v>
       </c>
       <c r="R5">
-        <v>24.19535921196365</v>
+        <v>501.1277025309499</v>
       </c>
       <c r="S5">
-        <v>0.001430920608562598</v>
+        <v>0.003052442285680589</v>
       </c>
       <c r="T5">
-        <v>0.001430920608562598</v>
+        <v>0.003052442285680589</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>143.941774450522</v>
+        <v>145.2141163333334</v>
       </c>
       <c r="H6">
-        <v>143.941774450522</v>
+        <v>435.6423490000001</v>
       </c>
       <c r="I6">
-        <v>0.9390110009825823</v>
+        <v>0.8940240311559332</v>
       </c>
       <c r="J6">
-        <v>0.9390110009825823</v>
+        <v>0.8940240311559333</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.24079685714428</v>
+        <v>1.854571666666667</v>
       </c>
       <c r="N6">
-        <v>1.24079685714428</v>
+        <v>5.563715</v>
       </c>
       <c r="O6">
-        <v>0.01124864785254337</v>
+        <v>0.01651371646154392</v>
       </c>
       <c r="P6">
-        <v>0.01124864785254337</v>
+        <v>0.01651371646154392</v>
       </c>
       <c r="Q6">
-        <v>178.6025013499785</v>
+        <v>269.3099857518372</v>
       </c>
       <c r="R6">
-        <v>178.6025013499785</v>
+        <v>2423.789871766536</v>
       </c>
       <c r="S6">
-        <v>0.01056260407971733</v>
+        <v>0.01476365936031559</v>
       </c>
       <c r="T6">
-        <v>0.01056260407971733</v>
+        <v>0.01476365936031559</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>143.941774450522</v>
+        <v>145.2141163333334</v>
       </c>
       <c r="H7">
-        <v>143.941774450522</v>
+        <v>435.6423490000001</v>
       </c>
       <c r="I7">
-        <v>0.9390110009825823</v>
+        <v>0.8940240311559332</v>
       </c>
       <c r="J7">
-        <v>0.9390110009825823</v>
+        <v>0.8940240311559333</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>92.8396018807598</v>
+        <v>92.91372433333333</v>
       </c>
       <c r="N7">
-        <v>92.8396018807598</v>
+        <v>278.741173</v>
       </c>
       <c r="O7">
-        <v>0.8416526704705836</v>
+        <v>0.8273343794712995</v>
       </c>
       <c r="P7">
-        <v>0.8416526704705836</v>
+        <v>0.8273343794712996</v>
       </c>
       <c r="Q7">
-        <v>13363.49703399658</v>
+        <v>13492.38437430393</v>
       </c>
       <c r="R7">
-        <v>13363.49703399658</v>
+        <v>121431.4593687354</v>
       </c>
       <c r="S7">
-        <v>0.7903211165782461</v>
+        <v>0.7396568170488237</v>
       </c>
       <c r="T7">
-        <v>0.7903211165782461</v>
+        <v>0.7396568170488239</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>143.941774450522</v>
+        <v>145.2141163333334</v>
       </c>
       <c r="H8">
-        <v>143.941774450522</v>
+        <v>435.6423490000001</v>
       </c>
       <c r="I8">
-        <v>0.9390110009825823</v>
+        <v>0.8940240311559332</v>
       </c>
       <c r="J8">
-        <v>0.9390110009825823</v>
+        <v>0.8940240311559333</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.156129563433599</v>
+        <v>0.162136</v>
       </c>
       <c r="N8">
-        <v>0.156129563433599</v>
+        <v>0.4864080000000001</v>
       </c>
       <c r="O8">
-        <v>0.001415418219609232</v>
+        <v>0.001443712303133186</v>
       </c>
       <c r="P8">
-        <v>0.001415418219609232</v>
+        <v>0.001443712303133187</v>
       </c>
       <c r="Q8">
-        <v>22.47356640481757</v>
+        <v>23.54443596582134</v>
       </c>
       <c r="R8">
-        <v>22.47356640481757</v>
+        <v>211.8999236923921</v>
       </c>
       <c r="S8">
-        <v>0.00132909327920425</v>
+        <v>0.001290713493076548</v>
       </c>
       <c r="T8">
-        <v>0.00132909327920425</v>
+        <v>0.001290713493076548</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>143.941774450522</v>
+        <v>145.2141163333334</v>
       </c>
       <c r="H9">
-        <v>143.941774450522</v>
+        <v>435.6423490000001</v>
       </c>
       <c r="I9">
-        <v>0.9390110009825823</v>
+        <v>0.8940240311559332</v>
       </c>
       <c r="J9">
-        <v>0.9390110009825823</v>
+        <v>0.8940240311559333</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>16.0697834802806</v>
+        <v>17.37449166666667</v>
       </c>
       <c r="N9">
-        <v>16.0697834802806</v>
+        <v>52.123475</v>
       </c>
       <c r="O9">
-        <v>0.145683263457264</v>
+        <v>0.1547081917640233</v>
       </c>
       <c r="P9">
-        <v>0.145683263457264</v>
+        <v>0.1547081917640233</v>
       </c>
       <c r="Q9">
-        <v>2313.113149187274</v>
+        <v>2523.021454115864</v>
       </c>
       <c r="R9">
-        <v>2313.113149187274</v>
+        <v>22707.19308704278</v>
       </c>
       <c r="S9">
-        <v>0.1367981870454147</v>
+        <v>0.1383128412537173</v>
       </c>
       <c r="T9">
-        <v>0.1367981870454147</v>
+        <v>0.1383128412537173</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.7834395696704159</v>
+        <v>0.8052786666666667</v>
       </c>
       <c r="H10">
-        <v>0.7834395696704159</v>
+        <v>2.415836</v>
       </c>
       <c r="I10">
-        <v>0.00511080523589386</v>
+        <v>0.004957771998726471</v>
       </c>
       <c r="J10">
-        <v>0.00511080523589386</v>
+        <v>0.004957771998726472</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.24079685714428</v>
+        <v>1.854571666666667</v>
       </c>
       <c r="N10">
-        <v>1.24079685714428</v>
+        <v>5.563715</v>
       </c>
       <c r="O10">
-        <v>0.01124864785254337</v>
+        <v>0.01651371646154392</v>
       </c>
       <c r="P10">
-        <v>0.01124864785254337</v>
+        <v>0.01651371646154392</v>
       </c>
       <c r="Q10">
-        <v>0.9720893558095193</v>
+        <v>1.493446998971111</v>
       </c>
       <c r="R10">
-        <v>0.9720893558095193</v>
+        <v>13.44102299074</v>
       </c>
       <c r="S10">
-        <v>5.748964834150489E-05</v>
+        <v>8.187124106795081E-05</v>
       </c>
       <c r="T10">
-        <v>5.748964834150489E-05</v>
+        <v>8.187124106795086E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.7834395696704159</v>
+        <v>0.8052786666666667</v>
       </c>
       <c r="H11">
-        <v>0.7834395696704159</v>
+        <v>2.415836</v>
       </c>
       <c r="I11">
-        <v>0.00511080523589386</v>
+        <v>0.004957771998726471</v>
       </c>
       <c r="J11">
-        <v>0.00511080523589386</v>
+        <v>0.004957771998726472</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>92.8396018807598</v>
+        <v>92.91372433333333</v>
       </c>
       <c r="N11">
-        <v>92.8396018807598</v>
+        <v>278.741173</v>
       </c>
       <c r="O11">
-        <v>0.8416526704705836</v>
+        <v>0.8273343794712995</v>
       </c>
       <c r="P11">
-        <v>0.8416526704705836</v>
+        <v>0.8273343794712996</v>
       </c>
       <c r="Q11">
-        <v>72.7342177458352</v>
+        <v>74.8214400461809</v>
       </c>
       <c r="R11">
-        <v>72.7342177458352</v>
+        <v>673.3929604156281</v>
       </c>
       <c r="S11">
-        <v>0.004301522875045108</v>
+        <v>0.004101735220126549</v>
       </c>
       <c r="T11">
-        <v>0.004301522875045108</v>
+        <v>0.00410173522012655</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.7834395696704159</v>
+        <v>0.8052786666666667</v>
       </c>
       <c r="H12">
-        <v>0.7834395696704159</v>
+        <v>2.415836</v>
       </c>
       <c r="I12">
-        <v>0.00511080523589386</v>
+        <v>0.004957771998726471</v>
       </c>
       <c r="J12">
-        <v>0.00511080523589386</v>
+        <v>0.004957771998726472</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.156129563433599</v>
+        <v>0.162136</v>
       </c>
       <c r="N12">
-        <v>0.156129563433599</v>
+        <v>0.4864080000000001</v>
       </c>
       <c r="O12">
-        <v>0.001415418219609232</v>
+        <v>0.001443712303133186</v>
       </c>
       <c r="P12">
-        <v>0.001415418219609232</v>
+        <v>0.001443712303133187</v>
       </c>
       <c r="Q12">
-        <v>0.1223180779892487</v>
+        <v>0.1305646618986667</v>
       </c>
       <c r="R12">
-        <v>0.1223180779892487</v>
+        <v>1.175081957088</v>
       </c>
       <c r="S12">
-        <v>7.233926847758428E-06</v>
+        <v>7.157596430690614E-06</v>
       </c>
       <c r="T12">
-        <v>7.233926847758428E-06</v>
+        <v>7.157596430690616E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.7834395696704159</v>
+        <v>0.8052786666666667</v>
       </c>
       <c r="H13">
-        <v>0.7834395696704159</v>
+        <v>2.415836</v>
       </c>
       <c r="I13">
-        <v>0.00511080523589386</v>
+        <v>0.004957771998726471</v>
       </c>
       <c r="J13">
-        <v>0.00511080523589386</v>
+        <v>0.004957771998726472</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>16.0697834802806</v>
+        <v>17.37449166666667</v>
       </c>
       <c r="N13">
-        <v>16.0697834802806</v>
+        <v>52.123475</v>
       </c>
       <c r="O13">
-        <v>0.145683263457264</v>
+        <v>0.1547081917640233</v>
       </c>
       <c r="P13">
-        <v>0.145683263457264</v>
+        <v>0.1547081917640233</v>
       </c>
       <c r="Q13">
-        <v>12.58970425448779</v>
+        <v>13.99130748334445</v>
       </c>
       <c r="R13">
-        <v>12.58970425448779</v>
+        <v>125.9217673501</v>
       </c>
       <c r="S13">
-        <v>0.0007445587856594895</v>
+        <v>0.00076700794110128</v>
       </c>
       <c r="T13">
-        <v>0.0007445587856594895</v>
+        <v>0.0007670079411012801</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>7.05997149102982</v>
+        <v>13.203389</v>
       </c>
       <c r="H14">
-        <v>7.05997149102982</v>
+        <v>39.610167</v>
       </c>
       <c r="I14">
-        <v>0.04605605927818521</v>
+        <v>0.08128787583986632</v>
       </c>
       <c r="J14">
-        <v>0.04605605927818521</v>
+        <v>0.08128787583986634</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.24079685714428</v>
+        <v>1.854571666666667</v>
       </c>
       <c r="N14">
-        <v>1.24079685714428</v>
+        <v>5.563715</v>
       </c>
       <c r="O14">
-        <v>0.01124864785254337</v>
+        <v>0.01651371646154392</v>
       </c>
       <c r="P14">
-        <v>0.01124864785254337</v>
+        <v>0.01651371646154392</v>
       </c>
       <c r="Q14">
-        <v>8.759990437598017</v>
+        <v>24.48663114337834</v>
       </c>
       <c r="R14">
-        <v>8.759990437598017</v>
+        <v>220.379680290405</v>
       </c>
       <c r="S14">
-        <v>0.0005180683922961683</v>
+        <v>0.001342364933380739</v>
       </c>
       <c r="T14">
-        <v>0.0005180683922961683</v>
+        <v>0.001342364933380739</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>7.05997149102982</v>
+        <v>13.203389</v>
       </c>
       <c r="H15">
-        <v>7.05997149102982</v>
+        <v>39.610167</v>
       </c>
       <c r="I15">
-        <v>0.04605605927818521</v>
+        <v>0.08128787583986632</v>
       </c>
       <c r="J15">
-        <v>0.04605605927818521</v>
+        <v>0.08128787583986634</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>92.8396018807598</v>
+        <v>92.91372433333333</v>
       </c>
       <c r="N15">
-        <v>92.8396018807598</v>
+        <v>278.741173</v>
       </c>
       <c r="O15">
-        <v>0.8416526704705836</v>
+        <v>0.8273343794712995</v>
       </c>
       <c r="P15">
-        <v>0.8416526704705836</v>
+        <v>0.8273343794712996</v>
       </c>
       <c r="Q15">
-        <v>655.4449425167227</v>
+        <v>1226.776045811766</v>
       </c>
       <c r="R15">
-        <v>655.4449425167227</v>
+        <v>11040.98441230589</v>
       </c>
       <c r="S15">
-        <v>0.03876320528283608</v>
+        <v>0.06725225431651584</v>
       </c>
       <c r="T15">
-        <v>0.03876320528283608</v>
+        <v>0.06725225431651587</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>7.05997149102982</v>
+        <v>13.203389</v>
       </c>
       <c r="H16">
-        <v>7.05997149102982</v>
+        <v>39.610167</v>
       </c>
       <c r="I16">
-        <v>0.04605605927818521</v>
+        <v>0.08128787583986632</v>
       </c>
       <c r="J16">
-        <v>0.04605605927818521</v>
+        <v>0.08128787583986634</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.156129563433599</v>
+        <v>0.162136</v>
       </c>
       <c r="N16">
-        <v>0.156129563433599</v>
+        <v>0.4864080000000001</v>
       </c>
       <c r="O16">
-        <v>0.001415418219609232</v>
+        <v>0.001443712303133186</v>
       </c>
       <c r="P16">
-        <v>0.001415418219609232</v>
+        <v>0.001443712303133187</v>
       </c>
       <c r="Q16">
-        <v>1.102270266748141</v>
+        <v>2.140744678904001</v>
       </c>
       <c r="R16">
-        <v>1.102270266748141</v>
+        <v>19.26670211013601</v>
       </c>
       <c r="S16">
-        <v>6.518858542574617E-05</v>
+        <v>0.0001173563064455779</v>
       </c>
       <c r="T16">
-        <v>6.518858542574617E-05</v>
+        <v>0.0001173563064455779</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>7.05997149102982</v>
+        <v>13.203389</v>
       </c>
       <c r="H17">
-        <v>7.05997149102982</v>
+        <v>39.610167</v>
       </c>
       <c r="I17">
-        <v>0.04605605927818521</v>
+        <v>0.08128787583986632</v>
       </c>
       <c r="J17">
-        <v>0.04605605927818521</v>
+        <v>0.08128787583986634</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>16.0697834802806</v>
+        <v>17.37449166666667</v>
       </c>
       <c r="N17">
-        <v>16.0697834802806</v>
+        <v>52.123475</v>
       </c>
       <c r="O17">
-        <v>0.145683263457264</v>
+        <v>0.1547081917640233</v>
       </c>
       <c r="P17">
-        <v>0.145683263457264</v>
+        <v>0.1547081917640233</v>
       </c>
       <c r="Q17">
-        <v>113.452213237803</v>
+        <v>229.4021721522584</v>
       </c>
       <c r="R17">
-        <v>113.452213237803</v>
+        <v>2064.619549370325</v>
       </c>
       <c r="S17">
-        <v>0.006709597017627224</v>
+        <v>0.01257590028352416</v>
       </c>
       <c r="T17">
-        <v>0.006709597017627224</v>
+        <v>0.01257590028352416</v>
       </c>
     </row>
   </sheetData>
